--- a/lowe/edd/data/FRSN$HWS.xlsx
+++ b/lowe/edd/data/FRSN$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1520,14 +1520,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH76"/>
+  <dimension ref="A1:JI76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1537,12 +1537,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1570,12 +1570,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1588,7 +1588,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2390,11 +2390,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3195,10 +3198,13 @@
         <v>448600</v>
       </c>
       <c r="JH9" s="11">
-        <v>445500</v>
+        <v>446500</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>445000</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3999,10 +4005,13 @@
         <v>407000</v>
       </c>
       <c r="JH10" s="11">
-        <v>406200</v>
+        <v>407200</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>410400</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4803,10 +4812,13 @@
         <v>41600</v>
       </c>
       <c r="JH11" s="11">
-        <v>39400</v>
+        <v>39300</v>
+      </c>
+      <c r="JI11" s="11">
+        <v>34600</v>
       </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5609,8 +5621,11 @@
       <c r="JH12" s="12">
         <v>8.7999999999999995E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>7.8E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6411,10 +6426,13 @@
         <v>396000</v>
       </c>
       <c r="JH13" s="11">
-        <v>399500</v>
+        <v>400200</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>400500</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7217,8 +7235,11 @@
       <c r="JH14" s="11">
         <v>47200</v>
       </c>
+      <c r="JI14" s="11">
+        <v>44900</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8019,10 +8040,13 @@
         <v>350000</v>
       </c>
       <c r="JH15" s="11">
-        <v>352300</v>
+        <v>353000</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>355600</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8823,10 +8847,13 @@
         <v>284100</v>
       </c>
       <c r="JH16" s="11">
-        <v>286700</v>
+        <v>286400</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>287000</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9629,8 +9656,11 @@
       <c r="JH17" s="11">
         <v>47800</v>
       </c>
+      <c r="JI17" s="11">
+        <v>47600</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10433,8 +10463,11 @@
       <c r="JH18" s="11">
         <v>20600</v>
       </c>
+      <c r="JI18" s="11">
+        <v>20300</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11237,8 +11270,11 @@
       <c r="JH19" s="11">
         <v>300</v>
       </c>
+      <c r="JI19" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12041,8 +12077,11 @@
       <c r="JH20" s="11">
         <v>20300</v>
       </c>
+      <c r="JI20" s="11">
+        <v>20000</v>
+      </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>17</v>
       </c>
@@ -12845,8 +12884,11 @@
       <c r="JH21" s="11">
         <v>13700</v>
       </c>
+      <c r="JI21" s="11">
+        <v>13500</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -13649,8 +13691,11 @@
       <c r="JH22" s="11">
         <v>27200</v>
       </c>
+      <c r="JI22" s="11">
+        <v>27300</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -14451,10 +14496,13 @@
         <v>8500</v>
       </c>
       <c r="JH23" s="11">
-        <v>8500</v>
+        <v>8400</v>
+      </c>
+      <c r="JI23" s="11">
+        <v>8400</v>
       </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -15255,10 +15303,13 @@
         <v>17700</v>
       </c>
       <c r="JH24" s="11">
-        <v>18700</v>
+        <v>18800</v>
+      </c>
+      <c r="JI24" s="11">
+        <v>18900</v>
       </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -16059,10 +16110,13 @@
         <v>12600</v>
       </c>
       <c r="JH25" s="11">
-        <v>13700</v>
+        <v>13600</v>
+      </c>
+      <c r="JI25" s="11">
+        <v>13600</v>
       </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -16863,10 +16917,13 @@
         <v>303800</v>
       </c>
       <c r="JH26" s="11">
-        <v>304500</v>
+        <v>305200</v>
+      </c>
+      <c r="JI26" s="11">
+        <v>308000</v>
       </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -17667,10 +17724,13 @@
         <v>237900</v>
       </c>
       <c r="JH27" s="11">
-        <v>238900</v>
+        <v>238600</v>
+      </c>
+      <c r="JI27" s="11">
+        <v>239400</v>
       </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18471,10 +18531,13 @@
         <v>71900</v>
       </c>
       <c r="JH28" s="11">
-        <v>72300</v>
+        <v>72200</v>
+      </c>
+      <c r="JI28" s="11">
+        <v>72700</v>
       </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -19277,8 +19340,11 @@
       <c r="JH29" s="11">
         <v>14700</v>
       </c>
+      <c r="JI29" s="11">
+        <v>14600</v>
+      </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -20079,10 +20145,13 @@
         <v>37900</v>
       </c>
       <c r="JH30" s="11">
-        <v>37800</v>
+        <v>37900</v>
+      </c>
+      <c r="JI30" s="11">
+        <v>38600</v>
       </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -20885,8 +20954,11 @@
       <c r="JH31" s="11">
         <v>7900</v>
       </c>
+      <c r="JI31" s="11">
+        <v>7900</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>32</v>
       </c>
@@ -21689,8 +21761,11 @@
       <c r="JH32" s="11">
         <v>8500</v>
       </c>
+      <c r="JI32" s="11">
+        <v>8700</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>34</v>
       </c>
@@ -22491,10 +22566,13 @@
         <v>19400</v>
       </c>
       <c r="JH33" s="11">
-        <v>19800</v>
+        <v>19600</v>
+      </c>
+      <c r="JI33" s="11">
+        <v>19500</v>
       </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>35</v>
       </c>
@@ -23295,10 +23373,13 @@
         <v>17000</v>
       </c>
       <c r="JH34" s="11">
-        <v>17500</v>
+        <v>17200</v>
+      </c>
+      <c r="JI34" s="11">
+        <v>17200</v>
       </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>37</v>
       </c>
@@ -24101,8 +24182,11 @@
       <c r="JH35" s="11">
         <v>2900</v>
       </c>
+      <c r="JI35" s="11">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>38</v>
       </c>
@@ -24905,8 +24989,11 @@
       <c r="JH36" s="11">
         <v>13300</v>
       </c>
+      <c r="JI36" s="11">
+        <v>13000</v>
+      </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>39</v>
       </c>
@@ -25709,8 +25796,11 @@
       <c r="JH37" s="11">
         <v>8500</v>
       </c>
+      <c r="JI37" s="11">
+        <v>8300</v>
+      </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>40</v>
       </c>
@@ -26511,10 +26601,13 @@
         <v>4800</v>
       </c>
       <c r="JH38" s="11">
+        <v>4900</v>
+      </c>
+      <c r="JI38" s="11">
         <v>4800</v>
       </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>42</v>
       </c>
@@ -27317,8 +27410,11 @@
       <c r="JH39" s="11">
         <v>4800</v>
       </c>
+      <c r="JI39" s="11">
+        <v>4700</v>
+      </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>43</v>
       </c>
@@ -28119,10 +28215,13 @@
         <v>35100</v>
       </c>
       <c r="JH40" s="11">
-        <v>35300</v>
+        <v>35200</v>
+      </c>
+      <c r="JI40" s="11">
+        <v>35100</v>
       </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>44</v>
       </c>
@@ -28923,10 +29022,13 @@
         <v>12200</v>
       </c>
       <c r="JH41" s="11">
-        <v>12300</v>
+        <v>12200</v>
+      </c>
+      <c r="JI41" s="11">
+        <v>12200</v>
       </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>45</v>
       </c>
@@ -29729,8 +29831,11 @@
       <c r="JH42" s="11">
         <v>2400</v>
       </c>
+      <c r="JI42" s="11">
+        <v>2400</v>
+      </c>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>46</v>
       </c>
@@ -30533,8 +30638,11 @@
       <c r="JH43" s="11">
         <v>20600</v>
       </c>
+      <c r="JI43" s="11">
+        <v>20500</v>
+      </c>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>47</v>
       </c>
@@ -31337,8 +31445,11 @@
       <c r="JH44" s="11">
         <v>19300</v>
       </c>
+      <c r="JI44" s="11">
+        <v>19200</v>
+      </c>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>50</v>
       </c>
@@ -32141,8 +32252,11 @@
       <c r="JH45" s="11">
         <v>1300</v>
       </c>
+      <c r="JI45" s="11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>51</v>
       </c>
@@ -32945,8 +33059,11 @@
       <c r="JH46" s="11">
         <v>71200</v>
       </c>
+      <c r="JI46" s="11">
+        <v>72400</v>
+      </c>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>52</v>
       </c>
@@ -33749,8 +33866,11 @@
       <c r="JH47" s="11">
         <v>3600</v>
       </c>
+      <c r="JI47" s="11">
+        <v>3800</v>
+      </c>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>53</v>
       </c>
@@ -34553,8 +34673,11 @@
       <c r="JH48" s="11">
         <v>67600</v>
       </c>
+      <c r="JI48" s="11">
+        <v>68600</v>
+      </c>
     </row>
-    <row r="49" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>55</v>
       </c>
@@ -35355,10 +35478,13 @@
         <v>20500</v>
       </c>
       <c r="JH49" s="11">
-        <v>20200</v>
+        <v>20000</v>
+      </c>
+      <c r="JI49" s="11">
+        <v>20500</v>
       </c>
     </row>
-    <row r="50" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>56</v>
       </c>
@@ -36159,10 +36285,13 @@
         <v>13800</v>
       </c>
       <c r="JH50" s="11">
-        <v>13600</v>
+        <v>13700</v>
+      </c>
+      <c r="JI50" s="11">
+        <v>13800</v>
       </c>
     </row>
-    <row r="51" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>57</v>
       </c>
@@ -36965,8 +37094,11 @@
       <c r="JH51" s="11">
         <v>7000</v>
       </c>
+      <c r="JI51" s="11">
+        <v>7000</v>
+      </c>
     </row>
-    <row r="52" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>58</v>
       </c>
@@ -37767,10 +37899,13 @@
         <v>27100</v>
       </c>
       <c r="JH52" s="11">
-        <v>26800</v>
+        <v>26900</v>
+      </c>
+      <c r="JI52" s="11">
+        <v>27300</v>
       </c>
     </row>
-    <row r="53" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>59</v>
       </c>
@@ -38571,10 +38706,13 @@
         <v>31400</v>
       </c>
       <c r="JH53" s="11">
-        <v>32200</v>
+        <v>32100</v>
+      </c>
+      <c r="JI53" s="11">
+        <v>31600</v>
       </c>
     </row>
-    <row r="54" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>61</v>
       </c>
@@ -39375,10 +39513,13 @@
         <v>27000</v>
       </c>
       <c r="JH54" s="11">
-        <v>27900</v>
+        <v>27600</v>
+      </c>
+      <c r="JI54" s="11">
+        <v>27300</v>
       </c>
     </row>
-    <row r="55" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>63</v>
       </c>
@@ -40179,10 +40320,13 @@
         <v>24500</v>
       </c>
       <c r="JH55" s="11">
-        <v>25400</v>
+        <v>25200</v>
+      </c>
+      <c r="JI55" s="11">
+        <v>24900</v>
       </c>
     </row>
-    <row r="56" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>67</v>
       </c>
@@ -40985,8 +41129,11 @@
       <c r="JH56" s="11">
         <v>11700</v>
       </c>
+      <c r="JI56" s="11">
+        <v>11700</v>
+      </c>
     </row>
-    <row r="57" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>68</v>
       </c>
@@ -41787,10 +41934,13 @@
         <v>65900</v>
       </c>
       <c r="JH57" s="11">
-        <v>65600</v>
+        <v>66600</v>
+      </c>
+      <c r="JI57" s="11">
+        <v>68600</v>
       </c>
     </row>
-    <row r="58" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>69</v>
       </c>
@@ -42593,8 +42743,11 @@
       <c r="JH58" s="11">
         <v>9700</v>
       </c>
+      <c r="JI58" s="11">
+        <v>9600</v>
+      </c>
     </row>
-    <row r="59" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>70</v>
       </c>
@@ -43395,10 +43548,13 @@
         <v>55800</v>
       </c>
       <c r="JH59" s="11">
-        <v>55900</v>
+        <v>56900</v>
+      </c>
+      <c r="JI59" s="11">
+        <v>59000</v>
       </c>
     </row>
-    <row r="60" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>71</v>
       </c>
@@ -44201,8 +44357,11 @@
       <c r="JH60" s="11">
         <v>11500</v>
       </c>
+      <c r="JI60" s="11">
+        <v>11900</v>
+      </c>
     </row>
-    <row r="61" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>72</v>
       </c>
@@ -45005,8 +45164,11 @@
       <c r="JH61" s="11">
         <v>2700</v>
       </c>
+      <c r="JI61" s="11">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="62" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>74</v>
       </c>
@@ -45807,10 +45969,13 @@
         <v>44200</v>
       </c>
       <c r="JH62" s="11">
-        <v>44400</v>
+        <v>45400</v>
+      </c>
+      <c r="JI62" s="11">
+        <v>47100</v>
       </c>
     </row>
-    <row r="63" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>75</v>
       </c>
@@ -46611,10 +46776,13 @@
         <v>28000</v>
       </c>
       <c r="JH63" s="11">
-        <v>28200</v>
+        <v>28900</v>
+      </c>
+      <c r="JI63" s="11">
+        <v>30500</v>
       </c>
     </row>
-    <row r="64" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>76</v>
       </c>
@@ -47415,10 +47583,13 @@
         <v>16200</v>
       </c>
       <c r="JH64" s="11">
-        <v>16200</v>
+        <v>16500</v>
+      </c>
+      <c r="JI64" s="11">
+        <v>16600</v>
       </c>
     </row>
-    <row r="65" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>77</v>
       </c>
@@ -48219,10 +48390,13 @@
         <v>7900</v>
       </c>
       <c r="JH65" s="11">
-        <v>7900</v>
+        <v>8000</v>
+      </c>
+      <c r="JI65" s="11">
+        <v>8200</v>
       </c>
     </row>
-    <row r="66" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>78</v>
       </c>
@@ -49023,10 +49197,13 @@
         <v>5700</v>
       </c>
       <c r="JH66" s="11">
-        <v>5800</v>
+        <v>5900</v>
+      </c>
+      <c r="JI66" s="11">
+        <v>5700</v>
       </c>
     </row>
-    <row r="67" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>79</v>
       </c>
@@ -49827,10 +50004,13 @@
         <v>2600</v>
       </c>
       <c r="JH67" s="11">
-        <v>2500</v>
+        <v>2600</v>
+      </c>
+      <c r="JI67" s="11">
+        <v>2700</v>
       </c>
     </row>
-    <row r="69" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>159</v>
       </c>
@@ -49843,7 +50023,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="16"/>
     </row>
-    <row r="70" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>16</v>
       </c>
@@ -49856,7 +50036,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="18"/>
     </row>
-    <row r="71" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>160</v>
       </c>
@@ -49869,7 +50049,7 @@
       <c r="H71" s="14"/>
       <c r="I71" s="18"/>
     </row>
-    <row r="72" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>161</v>
       </c>
@@ -49882,7 +50062,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="18"/>
     </row>
-    <row r="73" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>162</v>
       </c>
@@ -49895,7 +50075,7 @@
       <c r="H73" s="14"/>
       <c r="I73" s="18"/>
     </row>
-    <row r="74" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>163</v>
       </c>
@@ -49908,7 +50088,7 @@
       <c r="H74" s="14"/>
       <c r="I74" s="18"/>
     </row>
-    <row r="75" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>164</v>
       </c>
@@ -49921,7 +50101,7 @@
       <c r="H75" s="14"/>
       <c r="I75" s="18"/>
     </row>
-    <row r="76" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
         <v>165</v>
       </c>

--- a/lowe/edd/data/FRSN$HWS.xlsx
+++ b/lowe/edd/data/FRSN$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1520,7 +1520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI76"/>
+  <dimension ref="A1:JJ76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1537,12 +1537,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1570,12 +1570,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1588,7 +1588,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2393,11 +2393,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3201,10 +3204,13 @@
         <v>446500</v>
       </c>
       <c r="JI9" s="11">
-        <v>445000</v>
+        <v>445600</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>443400</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4008,10 +4014,13 @@
         <v>407200</v>
       </c>
       <c r="JI10" s="11">
-        <v>410400</v>
+        <v>411200</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>409500</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4815,10 +4824,13 @@
         <v>39300</v>
       </c>
       <c r="JI11" s="11">
-        <v>34600</v>
+        <v>34500</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>33900</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5622,10 +5634,13 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="JI12" s="12">
-        <v>7.8E-2</v>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="JJ12" s="12">
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6429,10 +6444,13 @@
         <v>400200</v>
       </c>
       <c r="JI13" s="11">
-        <v>400500</v>
+        <v>401000</v>
+      </c>
+      <c r="JJ13" s="11">
+        <v>399800</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7238,8 +7256,11 @@
       <c r="JI14" s="11">
         <v>44900</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>39300</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8043,10 +8064,13 @@
         <v>353000</v>
       </c>
       <c r="JI15" s="11">
-        <v>355600</v>
+        <v>356100</v>
+      </c>
+      <c r="JJ15" s="11">
+        <v>360500</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8850,10 +8874,13 @@
         <v>286400</v>
       </c>
       <c r="JI16" s="11">
-        <v>287000</v>
+        <v>287500</v>
+      </c>
+      <c r="JJ16" s="11">
+        <v>290400</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9657,10 +9684,13 @@
         <v>47800</v>
       </c>
       <c r="JI17" s="11">
-        <v>47600</v>
+        <v>47500</v>
+      </c>
+      <c r="JJ17" s="11">
+        <v>47400</v>
       </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10464,10 +10494,13 @@
         <v>20600</v>
       </c>
       <c r="JI18" s="11">
-        <v>20300</v>
+        <v>20200</v>
+      </c>
+      <c r="JJ18" s="11">
+        <v>20700</v>
       </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11273,8 +11306,11 @@
       <c r="JI19" s="11">
         <v>300</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12078,10 +12114,13 @@
         <v>20300</v>
       </c>
       <c r="JI20" s="11">
-        <v>20000</v>
+        <v>19900</v>
+      </c>
+      <c r="JJ20" s="11">
+        <v>20400</v>
       </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>17</v>
       </c>
@@ -12885,10 +12924,13 @@
         <v>13700</v>
       </c>
       <c r="JI21" s="11">
-        <v>13500</v>
+        <v>13700</v>
+      </c>
+      <c r="JJ21" s="11">
+        <v>14000</v>
       </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -13694,8 +13736,11 @@
       <c r="JI22" s="11">
         <v>27300</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>26700</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -14501,8 +14546,11 @@
       <c r="JI23" s="11">
         <v>8400</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>8400</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -15308,8 +15356,11 @@
       <c r="JI24" s="11">
         <v>18900</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>18300</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -16113,10 +16164,13 @@
         <v>13600</v>
       </c>
       <c r="JI25" s="11">
-        <v>13600</v>
+        <v>13700</v>
+      </c>
+      <c r="JJ25" s="11">
+        <v>13100</v>
       </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -16920,10 +16974,13 @@
         <v>305200</v>
       </c>
       <c r="JI26" s="11">
-        <v>308000</v>
+        <v>308600</v>
+      </c>
+      <c r="JJ26" s="11">
+        <v>313100</v>
       </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -17727,10 +17784,13 @@
         <v>238600</v>
       </c>
       <c r="JI27" s="11">
-        <v>239400</v>
+        <v>240000</v>
+      </c>
+      <c r="JJ27" s="11">
+        <v>243000</v>
       </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18534,10 +18594,13 @@
         <v>72200</v>
       </c>
       <c r="JI28" s="11">
-        <v>72700</v>
+        <v>72900</v>
+      </c>
+      <c r="JJ28" s="11">
+        <v>74000</v>
       </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -19343,8 +19406,11 @@
       <c r="JI29" s="11">
         <v>14600</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>14800</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -20150,8 +20216,11 @@
       <c r="JI30" s="11">
         <v>38600</v>
       </c>
+      <c r="JJ30" s="11">
+        <v>39200</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -20955,10 +21024,13 @@
         <v>7900</v>
       </c>
       <c r="JI31" s="11">
-        <v>7900</v>
+        <v>8100</v>
+      </c>
+      <c r="JJ31" s="11">
+        <v>8100</v>
       </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>32</v>
       </c>
@@ -21764,8 +21836,11 @@
       <c r="JI32" s="11">
         <v>8700</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>8900</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>34</v>
       </c>
@@ -22569,10 +22644,13 @@
         <v>19600</v>
       </c>
       <c r="JI33" s="11">
-        <v>19500</v>
+        <v>19700</v>
+      </c>
+      <c r="JJ33" s="11">
+        <v>20000</v>
       </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>35</v>
       </c>
@@ -23376,10 +23454,13 @@
         <v>17200</v>
       </c>
       <c r="JI34" s="11">
-        <v>17200</v>
+        <v>17300</v>
+      </c>
+      <c r="JJ34" s="11">
+        <v>17700</v>
       </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>37</v>
       </c>
@@ -24185,8 +24266,11 @@
       <c r="JI35" s="11">
         <v>2900</v>
       </c>
+      <c r="JJ35" s="11">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>38</v>
       </c>
@@ -24990,10 +25074,13 @@
         <v>13300</v>
       </c>
       <c r="JI36" s="11">
+        <v>13100</v>
+      </c>
+      <c r="JJ36" s="11">
         <v>13000</v>
       </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>39</v>
       </c>
@@ -25797,10 +25884,13 @@
         <v>8500</v>
       </c>
       <c r="JI37" s="11">
-        <v>8300</v>
+        <v>8400</v>
+      </c>
+      <c r="JJ37" s="11">
+        <v>8400</v>
       </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>40</v>
       </c>
@@ -26604,10 +26694,13 @@
         <v>4900</v>
       </c>
       <c r="JI38" s="11">
+        <v>4900</v>
+      </c>
+      <c r="JJ38" s="11">
         <v>4800</v>
       </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>42</v>
       </c>
@@ -27413,8 +27506,11 @@
       <c r="JI39" s="11">
         <v>4700</v>
       </c>
+      <c r="JJ39" s="11">
+        <v>4600</v>
+      </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>43</v>
       </c>
@@ -28218,10 +28314,13 @@
         <v>35200</v>
       </c>
       <c r="JI40" s="11">
-        <v>35100</v>
+        <v>35200</v>
+      </c>
+      <c r="JJ40" s="11">
+        <v>35400</v>
       </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>44</v>
       </c>
@@ -29027,8 +29126,11 @@
       <c r="JI41" s="11">
         <v>12200</v>
       </c>
+      <c r="JJ41" s="11">
+        <v>12100</v>
+      </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>45</v>
       </c>
@@ -29834,8 +29936,11 @@
       <c r="JI42" s="11">
         <v>2400</v>
       </c>
+      <c r="JJ42" s="11">
+        <v>2400</v>
+      </c>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>46</v>
       </c>
@@ -30639,10 +30744,13 @@
         <v>20600</v>
       </c>
       <c r="JI43" s="11">
-        <v>20500</v>
+        <v>20600</v>
+      </c>
+      <c r="JJ43" s="11">
+        <v>20900</v>
       </c>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>47</v>
       </c>
@@ -31446,10 +31554,13 @@
         <v>19300</v>
       </c>
       <c r="JI44" s="11">
-        <v>19200</v>
+        <v>19300</v>
+      </c>
+      <c r="JJ44" s="11">
+        <v>19600</v>
       </c>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>50</v>
       </c>
@@ -32255,8 +32366,11 @@
       <c r="JI45" s="11">
         <v>1300</v>
       </c>
+      <c r="JJ45" s="11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>51</v>
       </c>
@@ -33060,10 +33174,13 @@
         <v>71200</v>
       </c>
       <c r="JI46" s="11">
-        <v>72400</v>
+        <v>72100</v>
+      </c>
+      <c r="JJ46" s="11">
+        <v>73300</v>
       </c>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>52</v>
       </c>
@@ -33869,8 +33986,11 @@
       <c r="JI47" s="11">
         <v>3800</v>
       </c>
+      <c r="JJ47" s="11">
+        <v>4100</v>
+      </c>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>53</v>
       </c>
@@ -34674,10 +34794,13 @@
         <v>67600</v>
       </c>
       <c r="JI48" s="11">
-        <v>68600</v>
+        <v>68300</v>
+      </c>
+      <c r="JJ48" s="11">
+        <v>69200</v>
       </c>
     </row>
-    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>55</v>
       </c>
@@ -35483,8 +35606,11 @@
       <c r="JI49" s="11">
         <v>20500</v>
       </c>
+      <c r="JJ49" s="11">
+        <v>20900</v>
+      </c>
     </row>
-    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>56</v>
       </c>
@@ -36290,8 +36416,11 @@
       <c r="JI50" s="11">
         <v>13800</v>
       </c>
+      <c r="JJ50" s="11">
+        <v>13900</v>
+      </c>
     </row>
-    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>57</v>
       </c>
@@ -37097,8 +37226,11 @@
       <c r="JI51" s="11">
         <v>7000</v>
       </c>
+      <c r="JJ51" s="11">
+        <v>7000</v>
+      </c>
     </row>
-    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>58</v>
       </c>
@@ -37902,10 +38034,13 @@
         <v>26900</v>
       </c>
       <c r="JI52" s="11">
-        <v>27300</v>
+        <v>27000</v>
+      </c>
+      <c r="JJ52" s="11">
+        <v>27400</v>
       </c>
     </row>
-    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>59</v>
       </c>
@@ -38709,10 +38844,13 @@
         <v>32100</v>
       </c>
       <c r="JI53" s="11">
-        <v>31600</v>
+        <v>32100</v>
+      </c>
+      <c r="JJ53" s="11">
+        <v>32600</v>
       </c>
     </row>
-    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>61</v>
       </c>
@@ -39516,10 +39654,13 @@
         <v>27600</v>
       </c>
       <c r="JI54" s="11">
-        <v>27300</v>
+        <v>27600</v>
+      </c>
+      <c r="JJ54" s="11">
+        <v>28100</v>
       </c>
     </row>
-    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>63</v>
       </c>
@@ -40323,10 +40464,13 @@
         <v>25200</v>
       </c>
       <c r="JI55" s="11">
-        <v>24900</v>
+        <v>25200</v>
+      </c>
+      <c r="JJ55" s="11">
+        <v>25200</v>
       </c>
     </row>
-    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>67</v>
       </c>
@@ -41132,8 +41276,11 @@
       <c r="JI56" s="11">
         <v>11700</v>
       </c>
+      <c r="JJ56" s="11">
+        <v>11800</v>
+      </c>
     </row>
-    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>68</v>
       </c>
@@ -41939,8 +42086,11 @@
       <c r="JI57" s="11">
         <v>68600</v>
       </c>
+      <c r="JJ57" s="11">
+        <v>70100</v>
+      </c>
     </row>
-    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>69</v>
       </c>
@@ -42746,8 +42896,11 @@
       <c r="JI58" s="11">
         <v>9600</v>
       </c>
+      <c r="JJ58" s="11">
+        <v>9300</v>
+      </c>
     </row>
-    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>70</v>
       </c>
@@ -43553,8 +43706,11 @@
       <c r="JI59" s="11">
         <v>59000</v>
       </c>
+      <c r="JJ59" s="11">
+        <v>60800</v>
+      </c>
     </row>
-    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>71</v>
       </c>
@@ -44360,8 +44516,11 @@
       <c r="JI60" s="11">
         <v>11900</v>
       </c>
+      <c r="JJ60" s="11">
+        <v>12300</v>
+      </c>
     </row>
-    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>72</v>
       </c>
@@ -45167,8 +45326,11 @@
       <c r="JI61" s="11">
         <v>3200</v>
       </c>
+      <c r="JJ61" s="11">
+        <v>3500</v>
+      </c>
     </row>
-    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>74</v>
       </c>
@@ -45974,8 +46136,11 @@
       <c r="JI62" s="11">
         <v>47100</v>
       </c>
+      <c r="JJ62" s="11">
+        <v>48500</v>
+      </c>
     </row>
-    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>75</v>
       </c>
@@ -46781,8 +46946,11 @@
       <c r="JI63" s="11">
         <v>30500</v>
       </c>
+      <c r="JJ63" s="11">
+        <v>32100</v>
+      </c>
     </row>
-    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>76</v>
       </c>
@@ -47588,8 +47756,11 @@
       <c r="JI64" s="11">
         <v>16600</v>
       </c>
+      <c r="JJ64" s="11">
+        <v>16400</v>
+      </c>
     </row>
-    <row r="65" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>77</v>
       </c>
@@ -48393,10 +48564,13 @@
         <v>8000</v>
       </c>
       <c r="JI65" s="11">
-        <v>8200</v>
+        <v>8100</v>
+      </c>
+      <c r="JJ65" s="11">
+        <v>8100</v>
       </c>
     </row>
-    <row r="66" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>78</v>
       </c>
@@ -49202,8 +49376,11 @@
       <c r="JI66" s="11">
         <v>5700</v>
       </c>
+      <c r="JJ66" s="11">
+        <v>5700</v>
+      </c>
     </row>
-    <row r="67" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>79</v>
       </c>
@@ -50007,10 +50184,13 @@
         <v>2600</v>
       </c>
       <c r="JI67" s="11">
-        <v>2700</v>
+        <v>2600</v>
+      </c>
+      <c r="JJ67" s="11">
+        <v>2600</v>
       </c>
     </row>
-    <row r="69" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>159</v>
       </c>
@@ -50023,7 +50203,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="16"/>
     </row>
-    <row r="70" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>16</v>
       </c>
@@ -50036,7 +50216,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="18"/>
     </row>
-    <row r="71" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>160</v>
       </c>
@@ -50049,7 +50229,7 @@
       <c r="H71" s="14"/>
       <c r="I71" s="18"/>
     </row>
-    <row r="72" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>161</v>
       </c>
@@ -50062,7 +50242,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="18"/>
     </row>
-    <row r="73" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>162</v>
       </c>
@@ -50075,7 +50255,7 @@
       <c r="H73" s="14"/>
       <c r="I73" s="18"/>
     </row>
-    <row r="74" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>163</v>
       </c>
@@ -50088,7 +50268,7 @@
       <c r="H74" s="14"/>
       <c r="I74" s="18"/>
     </row>
-    <row r="75" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>164</v>
       </c>
@@ -50101,7 +50281,7 @@
       <c r="H75" s="14"/>
       <c r="I75" s="18"/>
     </row>
-    <row r="76" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
         <v>165</v>
       </c>

--- a/lowe/edd/data/FRSN$HWS.xlsx
+++ b/lowe/edd/data/FRSN$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
     <t>70-720000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Accommodation &amp; Food Services</t>
+    <t xml:space="preserve">        Accommodation &amp; Food Services</t>
   </si>
   <si>
     <t>70-722000</t>
@@ -1520,7 +1520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ76"/>
+  <dimension ref="A1:JL76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1537,12 +1537,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1570,12 +1570,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1588,7 +1588,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2396,11 +2396,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3207,10 +3213,16 @@
         <v>445600</v>
       </c>
       <c r="JJ9" s="11">
-        <v>443400</v>
+        <v>443000</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>445900</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>447800</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4017,10 +4029,16 @@
         <v>411200</v>
       </c>
       <c r="JJ10" s="11">
-        <v>409500</v>
+        <v>409000</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>414500</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>416500</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4827,10 +4845,16 @@
         <v>34500</v>
       </c>
       <c r="JJ11" s="11">
-        <v>33900</v>
+        <v>34000</v>
+      </c>
+      <c r="JK11" s="11">
+        <v>31400</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>31300</v>
       </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5637,10 +5661,16 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="JJ12" s="12">
-        <v>7.5999999999999998E-2</v>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="JK12" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6447,10 +6477,16 @@
         <v>401000</v>
       </c>
       <c r="JJ13" s="11">
-        <v>399800</v>
+        <v>399300</v>
+      </c>
+      <c r="JK13" s="11">
+        <v>401800</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>403800</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7259,8 +7295,14 @@
       <c r="JJ14" s="11">
         <v>39300</v>
       </c>
+      <c r="JK14" s="11">
+        <v>37100</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>38900</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8067,10 +8109,16 @@
         <v>356100</v>
       </c>
       <c r="JJ15" s="11">
-        <v>360500</v>
+        <v>360000</v>
+      </c>
+      <c r="JK15" s="11">
+        <v>364700</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>364900</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8877,10 +8925,16 @@
         <v>287500</v>
       </c>
       <c r="JJ16" s="11">
-        <v>290400</v>
+        <v>290300</v>
+      </c>
+      <c r="JK16" s="11">
+        <v>294100</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>295100</v>
       </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9689,8 +9743,14 @@
       <c r="JJ17" s="11">
         <v>47400</v>
       </c>
+      <c r="JK17" s="11">
+        <v>47000</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>46500</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10497,10 +10557,16 @@
         <v>20200</v>
       </c>
       <c r="JJ18" s="11">
-        <v>20700</v>
+        <v>20900</v>
+      </c>
+      <c r="JK18" s="11">
+        <v>20800</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>20300</v>
       </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11309,8 +11375,14 @@
       <c r="JJ19" s="11">
         <v>300</v>
       </c>
+      <c r="JK19" s="11">
+        <v>300</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12117,10 +12189,16 @@
         <v>19900</v>
       </c>
       <c r="JJ20" s="11">
-        <v>20400</v>
+        <v>20600</v>
+      </c>
+      <c r="JK20" s="11">
+        <v>20500</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>20000</v>
       </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>17</v>
       </c>
@@ -12927,10 +13005,16 @@
         <v>13700</v>
       </c>
       <c r="JJ21" s="11">
-        <v>14000</v>
+        <v>13900</v>
+      </c>
+      <c r="JK21" s="11">
+        <v>13800</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>13600</v>
       </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -13737,10 +13821,16 @@
         <v>27300</v>
       </c>
       <c r="JJ22" s="11">
-        <v>26700</v>
+        <v>26500</v>
+      </c>
+      <c r="JK22" s="11">
+        <v>26200</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>26200</v>
       </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -14547,10 +14637,16 @@
         <v>8400</v>
       </c>
       <c r="JJ23" s="11">
+        <v>8300</v>
+      </c>
+      <c r="JK23" s="11">
         <v>8400</v>
       </c>
+      <c r="JL23" s="11">
+        <v>8500</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -15357,10 +15453,16 @@
         <v>18900</v>
       </c>
       <c r="JJ24" s="11">
-        <v>18300</v>
+        <v>18200</v>
+      </c>
+      <c r="JK24" s="11">
+        <v>17800</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>17700</v>
       </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -16169,8 +16271,14 @@
       <c r="JJ25" s="11">
         <v>13100</v>
       </c>
+      <c r="JK25" s="11">
+        <v>12700</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>12600</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -16977,10 +17085,16 @@
         <v>308600</v>
       </c>
       <c r="JJ26" s="11">
-        <v>313100</v>
+        <v>312600</v>
+      </c>
+      <c r="JK26" s="11">
+        <v>317700</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>318400</v>
       </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -17787,10 +17901,16 @@
         <v>240000</v>
       </c>
       <c r="JJ27" s="11">
-        <v>243000</v>
+        <v>242900</v>
+      </c>
+      <c r="JK27" s="11">
+        <v>247100</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>248600</v>
       </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18599,8 +18719,14 @@
       <c r="JJ28" s="11">
         <v>74000</v>
       </c>
+      <c r="JK28" s="11">
+        <v>76500</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>77200</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -19407,10 +19533,16 @@
         <v>14600</v>
       </c>
       <c r="JJ29" s="11">
+        <v>14700</v>
+      </c>
+      <c r="JK29" s="11">
+        <v>14900</v>
+      </c>
+      <c r="JL29" s="11">
         <v>14800</v>
       </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -20219,8 +20351,14 @@
       <c r="JJ30" s="11">
         <v>39200</v>
       </c>
+      <c r="JK30" s="11">
+        <v>40800</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>41000</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -21029,8 +21167,14 @@
       <c r="JJ31" s="11">
         <v>8100</v>
       </c>
+      <c r="JK31" s="11">
+        <v>8600</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>8600</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>32</v>
       </c>
@@ -21839,8 +21983,14 @@
       <c r="JJ32" s="11">
         <v>8900</v>
       </c>
+      <c r="JK32" s="11">
+        <v>9600</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>9800</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>34</v>
       </c>
@@ -22647,10 +22797,16 @@
         <v>19700</v>
       </c>
       <c r="JJ33" s="11">
-        <v>20000</v>
+        <v>20100</v>
+      </c>
+      <c r="JK33" s="11">
+        <v>20800</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>21400</v>
       </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>35</v>
       </c>
@@ -23457,10 +23613,16 @@
         <v>17300</v>
       </c>
       <c r="JJ34" s="11">
-        <v>17700</v>
+        <v>17800</v>
+      </c>
+      <c r="JK34" s="11">
+        <v>18400</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>18800</v>
       </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>37</v>
       </c>
@@ -24269,8 +24431,14 @@
       <c r="JJ35" s="11">
         <v>2900</v>
       </c>
+      <c r="JK35" s="11">
+        <v>2900</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>38</v>
       </c>
@@ -25079,8 +25247,14 @@
       <c r="JJ36" s="11">
         <v>13000</v>
       </c>
+      <c r="JK36" s="11">
+        <v>13100</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>13400</v>
+      </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>39</v>
       </c>
@@ -25887,10 +26061,16 @@
         <v>8400</v>
       </c>
       <c r="JJ37" s="11">
-        <v>8400</v>
+        <v>8500</v>
+      </c>
+      <c r="JK37" s="11">
+        <v>8500</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>8600</v>
       </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>40</v>
       </c>
@@ -26697,10 +26877,16 @@
         <v>4900</v>
       </c>
       <c r="JJ38" s="11">
-        <v>4800</v>
+        <v>4900</v>
+      </c>
+      <c r="JK38" s="11">
+        <v>5000</v>
+      </c>
+      <c r="JL38" s="11">
+        <v>5100</v>
       </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>42</v>
       </c>
@@ -27507,10 +27693,16 @@
         <v>4700</v>
       </c>
       <c r="JJ39" s="11">
+        <v>4500</v>
+      </c>
+      <c r="JK39" s="11">
         <v>4600</v>
       </c>
+      <c r="JL39" s="11">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>43</v>
       </c>
@@ -28317,10 +28509,16 @@
         <v>35200</v>
       </c>
       <c r="JJ40" s="11">
-        <v>35400</v>
+        <v>35200</v>
+      </c>
+      <c r="JK40" s="11">
+        <v>35700</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>36000</v>
       </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>44</v>
       </c>
@@ -29129,8 +29327,14 @@
       <c r="JJ41" s="11">
         <v>12100</v>
       </c>
+      <c r="JK41" s="11">
+        <v>12200</v>
+      </c>
+      <c r="JL41" s="11">
+        <v>12400</v>
+      </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>45</v>
       </c>
@@ -29939,8 +30143,14 @@
       <c r="JJ42" s="11">
         <v>2400</v>
       </c>
+      <c r="JK42" s="11">
+        <v>2400</v>
+      </c>
+      <c r="JL42" s="11">
+        <v>2400</v>
+      </c>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>46</v>
       </c>
@@ -30747,10 +30957,16 @@
         <v>20600</v>
       </c>
       <c r="JJ43" s="11">
-        <v>20900</v>
+        <v>20700</v>
+      </c>
+      <c r="JK43" s="11">
+        <v>21100</v>
+      </c>
+      <c r="JL43" s="11">
+        <v>21200</v>
       </c>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>47</v>
       </c>
@@ -31557,10 +31773,16 @@
         <v>19300</v>
       </c>
       <c r="JJ44" s="11">
-        <v>19600</v>
+        <v>19400</v>
+      </c>
+      <c r="JK44" s="11">
+        <v>19700</v>
+      </c>
+      <c r="JL44" s="11">
+        <v>19700</v>
       </c>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>50</v>
       </c>
@@ -32369,8 +32591,14 @@
       <c r="JJ45" s="11">
         <v>1300</v>
       </c>
+      <c r="JK45" s="11">
+        <v>1400</v>
+      </c>
+      <c r="JL45" s="11">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>51</v>
       </c>
@@ -33177,10 +33405,16 @@
         <v>72100</v>
       </c>
       <c r="JJ46" s="11">
-        <v>73300</v>
+        <v>73400</v>
+      </c>
+      <c r="JK46" s="11">
+        <v>74200</v>
+      </c>
+      <c r="JL46" s="11">
+        <v>74500</v>
       </c>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>52</v>
       </c>
@@ -33987,10 +34221,16 @@
         <v>3800</v>
       </c>
       <c r="JJ47" s="11">
+        <v>4000</v>
+      </c>
+      <c r="JK47" s="11">
         <v>4100</v>
       </c>
+      <c r="JL47" s="11">
+        <v>4100</v>
+      </c>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>53</v>
       </c>
@@ -34797,10 +35037,16 @@
         <v>68300</v>
       </c>
       <c r="JJ48" s="11">
-        <v>69200</v>
+        <v>69400</v>
+      </c>
+      <c r="JK48" s="11">
+        <v>70100</v>
+      </c>
+      <c r="JL48" s="11">
+        <v>70400</v>
       </c>
     </row>
-    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>55</v>
       </c>
@@ -35607,10 +35853,16 @@
         <v>20500</v>
       </c>
       <c r="JJ49" s="11">
-        <v>20900</v>
+        <v>21000</v>
+      </c>
+      <c r="JK49" s="11">
+        <v>21500</v>
+      </c>
+      <c r="JL49" s="11">
+        <v>21500</v>
       </c>
     </row>
-    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>56</v>
       </c>
@@ -36419,8 +36671,14 @@
       <c r="JJ50" s="11">
         <v>13900</v>
       </c>
+      <c r="JK50" s="11">
+        <v>13800</v>
+      </c>
+      <c r="JL50" s="11">
+        <v>13900</v>
+      </c>
     </row>
-    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>57</v>
       </c>
@@ -37229,8 +37487,14 @@
       <c r="JJ51" s="11">
         <v>7000</v>
       </c>
+      <c r="JK51" s="11">
+        <v>7000</v>
+      </c>
+      <c r="JL51" s="11">
+        <v>7000</v>
+      </c>
     </row>
-    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>58</v>
       </c>
@@ -38037,10 +38301,16 @@
         <v>27000</v>
       </c>
       <c r="JJ52" s="11">
-        <v>27400</v>
+        <v>27500</v>
+      </c>
+      <c r="JK52" s="11">
+        <v>27800</v>
+      </c>
+      <c r="JL52" s="11">
+        <v>28000</v>
       </c>
     </row>
-    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>59</v>
       </c>
@@ -38847,10 +39117,16 @@
         <v>32100</v>
       </c>
       <c r="JJ53" s="11">
-        <v>32600</v>
+        <v>32500</v>
+      </c>
+      <c r="JK53" s="11">
+        <v>32800</v>
+      </c>
+      <c r="JL53" s="11">
+        <v>32500</v>
       </c>
     </row>
-    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>61</v>
       </c>
@@ -39657,10 +39933,16 @@
         <v>27600</v>
       </c>
       <c r="JJ54" s="11">
-        <v>28100</v>
+        <v>27800</v>
+      </c>
+      <c r="JK54" s="11">
+        <v>28700</v>
+      </c>
+      <c r="JL54" s="11">
+        <v>28200</v>
       </c>
     </row>
-    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>63</v>
       </c>
@@ -40469,8 +40751,14 @@
       <c r="JJ55" s="11">
         <v>25200</v>
       </c>
+      <c r="JK55" s="11">
+        <v>26200</v>
+      </c>
+      <c r="JL55" s="11">
+        <v>25600</v>
+      </c>
     </row>
-    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>67</v>
       </c>
@@ -41277,10 +41565,16 @@
         <v>11700</v>
       </c>
       <c r="JJ56" s="11">
-        <v>11800</v>
+        <v>11900</v>
+      </c>
+      <c r="JK56" s="11">
+        <v>11900</v>
+      </c>
+      <c r="JL56" s="11">
+        <v>12000</v>
       </c>
     </row>
-    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>68</v>
       </c>
@@ -42087,10 +42381,16 @@
         <v>68600</v>
       </c>
       <c r="JJ57" s="11">
-        <v>70100</v>
+        <v>69700</v>
+      </c>
+      <c r="JK57" s="11">
+        <v>70600</v>
+      </c>
+      <c r="JL57" s="11">
+        <v>69800</v>
       </c>
     </row>
-    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>69</v>
       </c>
@@ -42899,8 +43199,14 @@
       <c r="JJ58" s="11">
         <v>9300</v>
       </c>
+      <c r="JK58" s="11">
+        <v>9500</v>
+      </c>
+      <c r="JL58" s="11">
+        <v>9500</v>
+      </c>
     </row>
-    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>70</v>
       </c>
@@ -43707,10 +44013,16 @@
         <v>59000</v>
       </c>
       <c r="JJ59" s="11">
-        <v>60800</v>
+        <v>60400</v>
+      </c>
+      <c r="JK59" s="11">
+        <v>61100</v>
+      </c>
+      <c r="JL59" s="11">
+        <v>60300</v>
       </c>
     </row>
-    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>71</v>
       </c>
@@ -44519,8 +44831,14 @@
       <c r="JJ60" s="11">
         <v>12300</v>
       </c>
+      <c r="JK60" s="11">
+        <v>12400</v>
+      </c>
+      <c r="JL60" s="11">
+        <v>12300</v>
+      </c>
     </row>
-    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>72</v>
       </c>
@@ -45329,8 +45647,14 @@
       <c r="JJ61" s="11">
         <v>3500</v>
       </c>
+      <c r="JK61" s="11">
+        <v>3600</v>
+      </c>
+      <c r="JL61" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>74</v>
       </c>
@@ -46137,10 +46461,16 @@
         <v>47100</v>
       </c>
       <c r="JJ62" s="11">
-        <v>48500</v>
+        <v>48100</v>
+      </c>
+      <c r="JK62" s="11">
+        <v>48700</v>
+      </c>
+      <c r="JL62" s="11">
+        <v>48000</v>
       </c>
     </row>
-    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>75</v>
       </c>
@@ -46947,10 +47277,16 @@
         <v>30500</v>
       </c>
       <c r="JJ63" s="11">
-        <v>32100</v>
+        <v>31700</v>
+      </c>
+      <c r="JK63" s="11">
+        <v>32600</v>
+      </c>
+      <c r="JL63" s="11">
+        <v>31900</v>
       </c>
     </row>
-    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>76</v>
       </c>
@@ -47759,8 +48095,14 @@
       <c r="JJ64" s="11">
         <v>16400</v>
       </c>
+      <c r="JK64" s="11">
+        <v>16100</v>
+      </c>
+      <c r="JL64" s="11">
+        <v>16100</v>
+      </c>
     </row>
-    <row r="65" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>77</v>
       </c>
@@ -48569,8 +48911,14 @@
       <c r="JJ65" s="11">
         <v>8100</v>
       </c>
+      <c r="JK65" s="11">
+        <v>7800</v>
+      </c>
+      <c r="JL65" s="11">
+        <v>7800</v>
+      </c>
     </row>
-    <row r="66" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>78</v>
       </c>
@@ -49379,8 +49727,14 @@
       <c r="JJ66" s="11">
         <v>5700</v>
       </c>
+      <c r="JK66" s="11">
+        <v>5700</v>
+      </c>
+      <c r="JL66" s="11">
+        <v>5700</v>
+      </c>
     </row>
-    <row r="67" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>79</v>
       </c>
@@ -50189,8 +50543,14 @@
       <c r="JJ67" s="11">
         <v>2600</v>
       </c>
+      <c r="JK67" s="11">
+        <v>2600</v>
+      </c>
+      <c r="JL67" s="11">
+        <v>2600</v>
+      </c>
     </row>
-    <row r="69" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>159</v>
       </c>
@@ -50203,7 +50563,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="16"/>
     </row>
-    <row r="70" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>16</v>
       </c>
@@ -50216,7 +50576,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="18"/>
     </row>
-    <row r="71" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>160</v>
       </c>
@@ -50229,7 +50589,7 @@
       <c r="H71" s="14"/>
       <c r="I71" s="18"/>
     </row>
-    <row r="72" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>161</v>
       </c>
@@ -50242,7 +50602,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="18"/>
     </row>
-    <row r="73" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>162</v>
       </c>
@@ -50255,7 +50615,7 @@
       <c r="H73" s="14"/>
       <c r="I73" s="18"/>
     </row>
-    <row r="74" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>163</v>
       </c>
@@ -50268,7 +50628,7 @@
       <c r="H74" s="14"/>
       <c r="I74" s="18"/>
     </row>
-    <row r="75" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>164</v>
       </c>
@@ -50281,7 +50641,7 @@
       <c r="H75" s="14"/>
       <c r="I75" s="18"/>
     </row>
-    <row r="76" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
         <v>165</v>
       </c>
